--- a/src/main/resources/接口测试用例V1.0.xlsx
+++ b/src/main/resources/接口测试用例V1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -32,10 +32,7 @@
     <t>Desc(用例描述)</t>
   </si>
   <si>
-    <t>ACB501(用户名)</t>
-  </si>
-  <si>
-    <t>UCC003(密码)</t>
+    <t>Params(参数)</t>
   </si>
   <si>
     <t>登录</t>
@@ -50,19 +47,25 @@
     <t>正确的密码，用户名，登录成功</t>
   </si>
   <si>
-    <t>E10ADC3949BA59ABBE56E057F20F883E</t>
+    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
   </si>
   <si>
     <t>用户名空，登录失败</t>
   </si>
   <si>
+    <t>{"ACB501":" ","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
+  </si>
+  <si>
     <t>密码错误，登录失败</t>
   </si>
   <si>
-    <t>E10ADC3949BA59ABBE56E057F20F893E</t>
+    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F8837E"}</t>
   </si>
   <si>
     <t>密码为空，登录失败</t>
+  </si>
+  <si>
+    <t>{"ACB501":"13522352342","UCC003":" "}</t>
   </si>
   <si>
     <t>ApiID(接口编号)</t>
@@ -166,9 +169,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -200,108 +203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +217,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +254,93 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,13 +385,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,7 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,133 +535,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,80 +572,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,16 +599,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -688,133 +691,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,25 +1208,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F12:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="68.125" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="39" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="74.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="18" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1239,1045 +1241,824 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    </row>
+    <row r="2" ht="33" customHeight="1" spans="1:6">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="19">
-        <v>13522352342</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="30.75" customHeight="1" spans="1:7">
+    </row>
+    <row r="3" ht="30.75" customHeight="1" spans="1:6">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19">
-        <v>13522352342</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:7">
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>9</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20">
-        <v>13522352342</v>
-      </c>
-      <c r="G5" s="20"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
       <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="16"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="16"/>
       <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="16"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:7">
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:7">
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:7">
+    </row>
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:7">
+    </row>
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:7">
+    </row>
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="16"/>
       <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:7">
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:7">
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:7">
+    </row>
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:7">
+    </row>
+    <row r="30" ht="16.5" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="16"/>
       <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:7">
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:7">
+    </row>
+    <row r="32" ht="16.5" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="16"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:7">
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:7">
+    </row>
+    <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="16"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:7">
+    </row>
+    <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="5"/>
       <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:7">
+    </row>
+    <row r="36" ht="16.5" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="16"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:7">
+    </row>
+    <row r="37" ht="16.5" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="5"/>
       <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:7">
+    </row>
+    <row r="38" ht="16.5" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="16"/>
       <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:7">
+    </row>
+    <row r="39" ht="16.5" spans="1:5">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
       <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:7">
+    </row>
+    <row r="40" ht="16.5" spans="1:5">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="16"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:7">
+    </row>
+    <row r="41" ht="16.5" spans="1:5">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="5"/>
       <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:7">
+    </row>
+    <row r="42" ht="16.5" spans="1:5">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:7">
+    </row>
+    <row r="43" ht="16.5" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="5"/>
       <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-    </row>
-    <row r="44" ht="16.5" spans="1:7">
+    </row>
+    <row r="44" ht="16.5" spans="1:5">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="16"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-    </row>
-    <row r="45" ht="16.5" spans="1:7">
+    </row>
+    <row r="45" ht="16.5" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="5"/>
       <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-    </row>
-    <row r="46" ht="16.5" spans="1:7">
+    </row>
+    <row r="46" ht="16.5" spans="1:5">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="16"/>
       <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-    </row>
-    <row r="47" ht="16.5" spans="1:7">
+    </row>
+    <row r="47" ht="16.5" spans="1:5">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="5"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" ht="16.5" spans="1:7">
+    </row>
+    <row r="48" ht="16.5" spans="1:5">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="16"/>
       <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-    </row>
-    <row r="49" ht="16.5" spans="1:7">
+    </row>
+    <row r="49" ht="16.5" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="5"/>
       <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-    </row>
-    <row r="50" ht="16.5" spans="1:7">
+    </row>
+    <row r="50" ht="16.5" spans="1:5">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="16"/>
       <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-    </row>
-    <row r="51" ht="16.5" spans="1:7">
+    </row>
+    <row r="51" ht="16.5" spans="1:5">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="5"/>
       <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-    </row>
-    <row r="52" ht="16.5" spans="1:7">
+    </row>
+    <row r="52" ht="16.5" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="16"/>
       <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-    </row>
-    <row r="53" ht="16.5" spans="1:7">
+    </row>
+    <row r="53" ht="16.5" spans="1:5">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="5"/>
       <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-    </row>
-    <row r="54" ht="16.5" spans="1:7">
+    </row>
+    <row r="54" ht="16.5" spans="1:5">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="16"/>
       <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-    </row>
-    <row r="55" ht="16.5" spans="1:7">
+    </row>
+    <row r="55" ht="16.5" spans="1:5">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="5"/>
       <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-    </row>
-    <row r="56" ht="16.5" spans="1:7">
+    </row>
+    <row r="56" ht="16.5" spans="1:5">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="16"/>
       <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" ht="16.5" spans="1:7">
+    </row>
+    <row r="57" ht="16.5" spans="1:5">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="5"/>
       <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-    </row>
-    <row r="58" ht="16.5" spans="1:7">
+    </row>
+    <row r="58" ht="16.5" spans="1:5">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="16"/>
       <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-    </row>
-    <row r="59" ht="16.5" spans="1:7">
+    </row>
+    <row r="59" ht="16.5" spans="1:5">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="5"/>
       <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" ht="16.5" spans="1:7">
+    </row>
+    <row r="60" ht="16.5" spans="1:5">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
       <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-    </row>
-    <row r="61" ht="16.5" spans="1:7">
+    </row>
+    <row r="61" ht="16.5" spans="1:5">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="5"/>
       <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-    </row>
-    <row r="62" ht="16.5" spans="1:7">
+    </row>
+    <row r="62" ht="16.5" spans="1:5">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="16"/>
       <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-    </row>
-    <row r="63" ht="16.5" spans="1:7">
+    </row>
+    <row r="63" ht="16.5" spans="1:5">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="5"/>
       <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-    </row>
-    <row r="64" ht="16.5" spans="1:7">
+    </row>
+    <row r="64" ht="16.5" spans="1:5">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
       <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-    </row>
-    <row r="65" ht="16.5" spans="1:7">
+    </row>
+    <row r="65" ht="16.5" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="5"/>
       <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-    </row>
-    <row r="66" ht="16.5" spans="1:7">
+    </row>
+    <row r="66" ht="16.5" spans="1:5">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
       <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-    </row>
-    <row r="67" ht="16.5" spans="1:7">
+    </row>
+    <row r="67" ht="16.5" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="5"/>
       <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-    </row>
-    <row r="68" ht="16.5" spans="1:7">
+    </row>
+    <row r="68" ht="16.5" spans="1:5">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="16"/>
       <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-    </row>
-    <row r="69" ht="16.5" spans="1:7">
+    </row>
+    <row r="69" ht="16.5" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="5"/>
       <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-    </row>
-    <row r="70" ht="16.5" spans="1:7">
+    </row>
+    <row r="70" ht="16.5" spans="1:5">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="16"/>
       <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-    </row>
-    <row r="71" ht="16.5" spans="1:7">
+    </row>
+    <row r="71" ht="16.5" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="5"/>
       <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-    </row>
-    <row r="72" ht="16.5" spans="1:7">
+    </row>
+    <row r="72" ht="16.5" spans="1:5">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
       <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-    </row>
-    <row r="73" ht="16.5" spans="1:7">
+    </row>
+    <row r="73" ht="16.5" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="5"/>
       <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" ht="16.5" spans="1:7">
+    </row>
+    <row r="74" ht="16.5" spans="1:5">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
       <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-    </row>
-    <row r="75" ht="16.5" spans="1:7">
+    </row>
+    <row r="75" ht="16.5" spans="1:5">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="5"/>
       <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" ht="16.5" spans="1:7">
+    </row>
+    <row r="76" ht="16.5" spans="1:5">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
       <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-    </row>
-    <row r="77" ht="16.5" spans="1:7">
+    </row>
+    <row r="77" ht="16.5" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="5"/>
       <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="19"/>
-    </row>
-    <row r="78" ht="16.5" spans="1:7">
+    </row>
+    <row r="78" ht="16.5" spans="1:5">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
       <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-    </row>
-    <row r="79" ht="16.5" spans="1:7">
+    </row>
+    <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="5"/>
       <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-    </row>
-    <row r="80" ht="16.5" spans="1:7">
+    </row>
+    <row r="80" ht="16.5" spans="1:5">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
       <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-    </row>
-    <row r="81" ht="16.5" spans="1:7">
+    </row>
+    <row r="81" ht="16.5" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="5"/>
       <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-    </row>
-    <row r="82" ht="16.5" spans="1:7">
+    </row>
+    <row r="82" ht="16.5" spans="1:5">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
       <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-    </row>
-    <row r="83" ht="16.5" spans="1:7">
+    </row>
+    <row r="83" ht="16.5" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="5"/>
       <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-    </row>
-    <row r="84" ht="16.5" spans="1:7">
+    </row>
+    <row r="84" ht="16.5" spans="1:5">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
       <c r="E84" s="20"/>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
-    </row>
-    <row r="85" ht="16.5" spans="1:7">
+    </row>
+    <row r="85" ht="16.5" spans="1:5">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="5"/>
       <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-    </row>
-    <row r="86" ht="16.5" spans="1:7">
+    </row>
+    <row r="86" ht="16.5" spans="1:5">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
       <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-    </row>
-    <row r="87" ht="16.5" spans="1:7">
+    </row>
+    <row r="87" ht="16.5" spans="1:5">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="5"/>
       <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" ht="16.5" spans="1:7">
+    </row>
+    <row r="88" ht="16.5" spans="1:5">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
       <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-    </row>
-    <row r="89" ht="16.5" spans="1:7">
+    </row>
+    <row r="89" ht="16.5" spans="1:5">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="5"/>
       <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" ht="16.5" spans="1:7">
+    </row>
+    <row r="90" ht="16.5" spans="1:5">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
       <c r="E90" s="20"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-    </row>
-    <row r="91" ht="16.5" spans="1:7">
+    </row>
+    <row r="91" ht="16.5" spans="1:5">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="5"/>
       <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" ht="16.5" spans="1:7">
+    </row>
+    <row r="92" ht="16.5" spans="1:5">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
       <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-    </row>
-    <row r="93" ht="16.5" spans="1:7">
+    </row>
+    <row r="93" ht="16.5" spans="1:5">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="5"/>
       <c r="E93" s="19"/>
-      <c r="F93" s="19"/>
-      <c r="G93" s="19"/>
-    </row>
-    <row r="94" ht="16.5" spans="1:7">
+    </row>
+    <row r="94" ht="16.5" spans="1:5">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
       <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-    </row>
-    <row r="95" ht="16.5" spans="1:7">
+    </row>
+    <row r="95" ht="16.5" spans="1:5">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="5"/>
       <c r="E95" s="19"/>
-      <c r="F95" s="19"/>
-      <c r="G95" s="19"/>
-    </row>
-    <row r="96" ht="16.5" spans="1:7">
+    </row>
+    <row r="96" ht="16.5" spans="1:5">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
       <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-    </row>
-    <row r="97" ht="16.5" spans="1:7">
+    </row>
+    <row r="97" ht="16.5" spans="1:5">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="5"/>
       <c r="E97" s="19"/>
-      <c r="F97" s="19"/>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" ht="16.5" spans="1:7">
+    </row>
+    <row r="98" ht="16.5" spans="1:5">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
       <c r="E98" s="20"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="20"/>
-    </row>
-    <row r="99" ht="16.5" spans="1:7">
+    </row>
+    <row r="99" ht="16.5" spans="1:5">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="5"/>
       <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" ht="16.5" spans="1:7">
+    </row>
+    <row r="100" ht="16.5" spans="1:5">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
       <c r="E100" s="20"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="20"/>
-    </row>
-    <row r="101" ht="16.5" spans="1:7">
+    </row>
+    <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="5"/>
       <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-    </row>
-    <row r="102" ht="16.5" spans="1:7">
+    </row>
+    <row r="102" ht="16.5" spans="1:5">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-    </row>
-    <row r="103" ht="16.5" spans="1:7">
+    </row>
+    <row r="103" ht="16.5" spans="1:5">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="5"/>
       <c r="E103" s="19"/>
-      <c r="F103" s="19"/>
-      <c r="G103" s="19"/>
-    </row>
-    <row r="104" ht="16.5" spans="1:7">
+    </row>
+    <row r="104" ht="16.5" spans="1:5">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="16"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="20"/>
-    </row>
-    <row r="105" ht="16.5" spans="1:7">
+    </row>
+    <row r="105" ht="16.5" spans="1:5">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="5"/>
       <c r="E105" s="19"/>
-      <c r="F105" s="19"/>
-      <c r="G105" s="19"/>
-    </row>
-    <row r="106" ht="16.5" spans="1:7">
+    </row>
+    <row r="106" ht="16.5" spans="1:5">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="16"/>
       <c r="E106" s="20"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="20"/>
-    </row>
-    <row r="107" ht="16.5" spans="1:7">
+    </row>
+    <row r="107" ht="16.5" spans="1:5">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="5"/>
       <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="19"/>
-    </row>
-    <row r="108" ht="16.5" spans="1:7">
+    </row>
+    <row r="108" ht="16.5" spans="1:5">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="16"/>
       <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-    </row>
-    <row r="109" ht="16.5" spans="1:7">
+    </row>
+    <row r="109" ht="16.5" spans="1:5">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="5"/>
       <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-    </row>
-    <row r="110" ht="16.5" spans="1:7">
+    </row>
+    <row r="110" ht="16.5" spans="1:5">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="16"/>
       <c r="E110" s="20"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2307,71 +2088,71 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="25.5" customHeight="1" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
@@ -2384,11 +2165,11 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:5">
@@ -2399,11 +2180,11 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:5">
@@ -2414,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
@@ -2427,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
@@ -2440,7 +2221,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
@@ -2453,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
@@ -2466,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
@@ -2479,7 +2260,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
@@ -2492,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
@@ -2505,7 +2286,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
@@ -2518,7 +2299,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
@@ -2531,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
@@ -2544,7 +2325,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
@@ -2557,7 +2338,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
@@ -2570,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
@@ -2583,7 +2364,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
@@ -2596,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>

--- a/src/main/resources/接口测试用例V1.0.xlsx
+++ b/src/main/resources/接口测试用例V1.0.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="接口信息" sheetId="1" r:id="rId1"/>
     <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -159,19 +159,33 @@
   </si>
   <si>
     <t>已审核的个人信息删除，删除失败。</t>
+  </si>
+  <si>
+    <t>Parameters(参数)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>E10ADC3949BA59ABBE56E057F20F883E</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ACB501":" ","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"ACB501":"13522352342","UCC003":" "}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,148 +216,17 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,13 +235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,180 +259,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -572,257 +287,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -836,43 +309,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,60 +357,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1199,19 +628,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="3" customWidth="1"/>
@@ -1220,10 +649,11 @@
     <col min="5" max="5" width="28.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="39" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="76.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:7">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1245,8 +675,11 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+      <c r="H1" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1266,10 +699,13 @@
         <v>13522352342</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="30.75" customHeight="1" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30.75" customHeight="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -1289,8 +725,11 @@
       <c r="G3" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="16.5" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1312,8 +751,11 @@
       <c r="G4" s="19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -1333,8 +775,11 @@
         <v>13522352342</v>
       </c>
       <c r="G5" s="20"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
@@ -1343,7 +788,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" ht="16.5" spans="1:7">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1352,7 +797,7 @@
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" ht="16.5" spans="1:7">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1361,7 +806,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" ht="16.5" spans="1:7">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1370,7 +815,7 @@
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1379,7 +824,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" ht="16.5" spans="1:7">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1388,7 +833,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" ht="16.5" spans="1:7">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1397,7 +842,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" ht="16.5" spans="1:7">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1406,7 +851,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" ht="16.5" spans="1:7">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -1415,7 +860,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" ht="16.5" spans="1:7">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1424,7 +869,7 @@
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" ht="16.5" spans="1:7">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -1433,7 +878,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
     </row>
-    <row r="17" ht="16.5" spans="1:7">
+    <row r="17" spans="1:7" ht="16.5">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1442,7 +887,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" ht="16.5" spans="1:7">
+    <row r="18" spans="1:7" ht="16.5">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -1451,7 +896,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" ht="16.5" spans="1:7">
+    <row r="19" spans="1:7" ht="16.5">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1460,7 +905,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" ht="16.5" spans="1:7">
+    <row r="20" spans="1:7" ht="16.5">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1469,7 +914,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" ht="16.5" spans="1:7">
+    <row r="21" spans="1:7" ht="16.5">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1478,7 +923,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" ht="16.5" spans="1:7">
+    <row r="22" spans="1:7" ht="16.5">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -1487,7 +932,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" ht="16.5" spans="1:7">
+    <row r="23" spans="1:7" ht="16.5">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1496,7 +941,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" ht="16.5" spans="1:7">
+    <row r="24" spans="1:7" ht="16.5">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1505,7 +950,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" ht="16.5" spans="1:7">
+    <row r="25" spans="1:7" ht="16.5">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -1514,7 +959,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" ht="16.5" spans="1:7">
+    <row r="26" spans="1:7" ht="16.5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1523,7 +968,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" ht="16.5" spans="1:7">
+    <row r="27" spans="1:7" ht="16.5">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1532,7 +977,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" ht="16.5" spans="1:7">
+    <row r="28" spans="1:7" ht="16.5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -1541,7 +986,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" ht="16.5" spans="1:7">
+    <row r="29" spans="1:7" ht="16.5">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1550,7 +995,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" ht="16.5" spans="1:7">
+    <row r="30" spans="1:7" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -1559,7 +1004,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" ht="16.5" spans="1:7">
+    <row r="31" spans="1:7" ht="16.5">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -1568,7 +1013,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" ht="16.5" spans="1:7">
+    <row r="32" spans="1:7" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -1577,7 +1022,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" ht="16.5" spans="1:7">
+    <row r="33" spans="1:7" ht="16.5">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1586,7 +1031,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" ht="16.5" spans="1:7">
+    <row r="34" spans="1:7" ht="16.5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -1595,7 +1040,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" ht="16.5" spans="1:7">
+    <row r="35" spans="1:7" ht="16.5">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -1604,7 +1049,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" ht="16.5" spans="1:7">
+    <row r="36" spans="1:7" ht="16.5">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -1613,7 +1058,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" ht="16.5" spans="1:7">
+    <row r="37" spans="1:7" ht="16.5">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -1622,7 +1067,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" ht="16.5" spans="1:7">
+    <row r="38" spans="1:7" ht="16.5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -1631,7 +1076,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" ht="16.5" spans="1:7">
+    <row r="39" spans="1:7" ht="16.5">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -1640,7 +1085,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" ht="16.5" spans="1:7">
+    <row r="40" spans="1:7" ht="16.5">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -1649,7 +1094,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" ht="16.5" spans="1:7">
+    <row r="41" spans="1:7" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1658,7 +1103,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" ht="16.5" spans="1:7">
+    <row r="42" spans="1:7" ht="16.5">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -1667,7 +1112,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" ht="16.5" spans="1:7">
+    <row r="43" spans="1:7" ht="16.5">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1676,7 +1121,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" ht="16.5" spans="1:7">
+    <row r="44" spans="1:7" ht="16.5">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -1685,7 +1130,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" ht="16.5" spans="1:7">
+    <row r="45" spans="1:7" ht="16.5">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1694,7 +1139,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" ht="16.5" spans="1:7">
+    <row r="46" spans="1:7" ht="16.5">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -1703,7 +1148,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" ht="16.5" spans="1:7">
+    <row r="47" spans="1:7" ht="16.5">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -1712,7 +1157,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
     </row>
-    <row r="48" ht="16.5" spans="1:7">
+    <row r="48" spans="1:7" ht="16.5">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -1721,7 +1166,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" ht="16.5" spans="1:7">
+    <row r="49" spans="1:7" ht="16.5">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1730,7 +1175,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
     </row>
-    <row r="50" ht="16.5" spans="1:7">
+    <row r="50" spans="1:7" ht="16.5">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -1739,7 +1184,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" ht="16.5" spans="1:7">
+    <row r="51" spans="1:7" ht="16.5">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -1748,7 +1193,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
     </row>
-    <row r="52" ht="16.5" spans="1:7">
+    <row r="52" spans="1:7" ht="16.5">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -1757,7 +1202,7 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" ht="16.5" spans="1:7">
+    <row r="53" spans="1:7" ht="16.5">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -1766,7 +1211,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
     </row>
-    <row r="54" ht="16.5" spans="1:7">
+    <row r="54" spans="1:7" ht="16.5">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1775,7 +1220,7 @@
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" ht="16.5" spans="1:7">
+    <row r="55" spans="1:7" ht="16.5">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -1784,7 +1229,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
     </row>
-    <row r="56" ht="16.5" spans="1:7">
+    <row r="56" spans="1:7" ht="16.5">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -1793,7 +1238,7 @@
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" ht="16.5" spans="1:7">
+    <row r="57" spans="1:7" ht="16.5">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -1802,7 +1247,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" ht="16.5" spans="1:7">
+    <row r="58" spans="1:7" ht="16.5">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -1811,7 +1256,7 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" ht="16.5" spans="1:7">
+    <row r="59" spans="1:7" ht="16.5">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -1820,7 +1265,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" ht="16.5" spans="1:7">
+    <row r="60" spans="1:7" ht="16.5">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
@@ -1829,7 +1274,7 @@
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" ht="16.5" spans="1:7">
+    <row r="61" spans="1:7" ht="16.5">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -1838,7 +1283,7 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" ht="16.5" spans="1:7">
+    <row r="62" spans="1:7" ht="16.5">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
@@ -1847,7 +1292,7 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" ht="16.5" spans="1:7">
+    <row r="63" spans="1:7" ht="16.5">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -1856,7 +1301,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" ht="16.5" spans="1:7">
+    <row r="64" spans="1:7" ht="16.5">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
@@ -1865,7 +1310,7 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" ht="16.5" spans="1:7">
+    <row r="65" spans="1:7" ht="16.5">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -1874,7 +1319,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" ht="16.5" spans="1:7">
+    <row r="66" spans="1:7" ht="16.5">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
@@ -1883,7 +1328,7 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" ht="16.5" spans="1:7">
+    <row r="67" spans="1:7" ht="16.5">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -1892,7 +1337,7 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" ht="16.5" spans="1:7">
+    <row r="68" spans="1:7" ht="16.5">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
@@ -1901,7 +1346,7 @@
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" ht="16.5" spans="1:7">
+    <row r="69" spans="1:7" ht="16.5">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -1910,7 +1355,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
     </row>
-    <row r="70" ht="16.5" spans="1:7">
+    <row r="70" spans="1:7" ht="16.5">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
@@ -1919,7 +1364,7 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
     </row>
-    <row r="71" ht="16.5" spans="1:7">
+    <row r="71" spans="1:7" ht="16.5">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -1928,7 +1373,7 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
     </row>
-    <row r="72" ht="16.5" spans="1:7">
+    <row r="72" spans="1:7" ht="16.5">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
@@ -1937,7 +1382,7 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" ht="16.5" spans="1:7">
+    <row r="73" spans="1:7" ht="16.5">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -1946,7 +1391,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" ht="16.5" spans="1:7">
+    <row r="74" spans="1:7" ht="16.5">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
@@ -1955,7 +1400,7 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" ht="16.5" spans="1:7">
+    <row r="75" spans="1:7" ht="16.5">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -1964,7 +1409,7 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" ht="16.5" spans="1:7">
+    <row r="76" spans="1:7" ht="16.5">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -1973,7 +1418,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" ht="16.5" spans="1:7">
+    <row r="77" spans="1:7" ht="16.5">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -1982,7 +1427,7 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
     </row>
-    <row r="78" ht="16.5" spans="1:7">
+    <row r="78" spans="1:7" ht="16.5">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -1991,7 +1436,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
     </row>
-    <row r="79" ht="16.5" spans="1:7">
+    <row r="79" spans="1:7" ht="16.5">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2000,7 +1445,7 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
     </row>
-    <row r="80" ht="16.5" spans="1:7">
+    <row r="80" spans="1:7" ht="16.5">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
@@ -2009,7 +1454,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
     </row>
-    <row r="81" ht="16.5" spans="1:7">
+    <row r="81" spans="1:7" ht="16.5">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2018,7 +1463,7 @@
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
     </row>
-    <row r="82" ht="16.5" spans="1:7">
+    <row r="82" spans="1:7" ht="16.5">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -2027,7 +1472,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" ht="16.5" spans="1:7">
+    <row r="83" spans="1:7" ht="16.5">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2036,7 +1481,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
     </row>
-    <row r="84" ht="16.5" spans="1:7">
+    <row r="84" spans="1:7" ht="16.5">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
@@ -2045,7 +1490,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" ht="16.5" spans="1:7">
+    <row r="85" spans="1:7" ht="16.5">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2054,7 +1499,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" ht="16.5" spans="1:7">
+    <row r="86" spans="1:7" ht="16.5">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
@@ -2063,7 +1508,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
     </row>
-    <row r="87" ht="16.5" spans="1:7">
+    <row r="87" spans="1:7" ht="16.5">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2072,7 +1517,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
     </row>
-    <row r="88" ht="16.5" spans="1:7">
+    <row r="88" spans="1:7" ht="16.5">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
@@ -2081,7 +1526,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" ht="16.5" spans="1:7">
+    <row r="89" spans="1:7" ht="16.5">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2090,7 +1535,7 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
     </row>
-    <row r="90" ht="16.5" spans="1:7">
+    <row r="90" spans="1:7" ht="16.5">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
@@ -2099,7 +1544,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" ht="16.5" spans="1:7">
+    <row r="91" spans="1:7" ht="16.5">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2108,7 +1553,7 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" ht="16.5" spans="1:7">
+    <row r="92" spans="1:7" ht="16.5">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
@@ -2117,7 +1562,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" ht="16.5" spans="1:7">
+    <row r="93" spans="1:7" ht="16.5">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2126,7 +1571,7 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" ht="16.5" spans="1:7">
+    <row r="94" spans="1:7" ht="16.5">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
@@ -2135,7 +1580,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" ht="16.5" spans="1:7">
+    <row r="95" spans="1:7" ht="16.5">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2144,7 +1589,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
     </row>
-    <row r="96" ht="16.5" spans="1:7">
+    <row r="96" spans="1:7" ht="16.5">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -2153,7 +1598,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
     </row>
-    <row r="97" ht="16.5" spans="1:7">
+    <row r="97" spans="1:7" ht="16.5">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2162,7 +1607,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
     </row>
-    <row r="98" ht="16.5" spans="1:7">
+    <row r="98" spans="1:7" ht="16.5">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
@@ -2171,7 +1616,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" ht="16.5" spans="1:7">
+    <row r="99" spans="1:7" ht="16.5">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2180,7 +1625,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
     </row>
-    <row r="100" ht="16.5" spans="1:7">
+    <row r="100" spans="1:7" ht="16.5">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
@@ -2189,7 +1634,7 @@
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" ht="16.5" spans="1:7">
+    <row r="101" spans="1:7" ht="16.5">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2198,7 +1643,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
     </row>
-    <row r="102" ht="16.5" spans="1:7">
+    <row r="102" spans="1:7" ht="16.5">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
@@ -2207,7 +1652,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" ht="16.5" spans="1:7">
+    <row r="103" spans="1:7" ht="16.5">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2216,7 +1661,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
     </row>
-    <row r="104" ht="16.5" spans="1:7">
+    <row r="104" spans="1:7" ht="16.5">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
@@ -2225,7 +1670,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" ht="16.5" spans="1:7">
+    <row r="105" spans="1:7" ht="16.5">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2234,7 +1679,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
     </row>
-    <row r="106" ht="16.5" spans="1:7">
+    <row r="106" spans="1:7" ht="16.5">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
@@ -2243,7 +1688,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" ht="16.5" spans="1:7">
+    <row r="107" spans="1:7" ht="16.5">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -2252,7 +1697,7 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
     </row>
-    <row r="108" ht="16.5" spans="1:7">
+    <row r="108" spans="1:7" ht="16.5">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -2261,7 +1706,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" ht="16.5" spans="1:7">
+    <row r="109" spans="1:7" ht="16.5">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -2270,7 +1715,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
     </row>
-    <row r="110" ht="16.5" spans="1:7">
+    <row r="110" spans="1:7" ht="16.5">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -2280,22 +1725,21 @@
       <c r="G110" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
@@ -2305,7 +1749,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +1766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="20.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>20</v>
       </c>
@@ -2337,7 +1781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17.25" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2350,7 +1794,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="21" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -2363,7 +1807,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="25.5" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2376,7 +1820,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -2391,7 +1835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="8">
         <v>2</v>
       </c>
@@ -2406,7 +1850,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -2419,7 +1863,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" ht="24.75" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="24.75" customHeight="1">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -2432,7 +1876,7 @@
       <c r="D9" s="13"/>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="8">
         <v>4</v>
       </c>
@@ -2445,7 +1889,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="10"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="8">
         <v>4</v>
       </c>
@@ -2458,7 +1902,7 @@
       <c r="D11" s="9"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="8">
         <v>4</v>
       </c>
@@ -2471,7 +1915,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -2484,7 +1928,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="16">
         <v>5</v>
       </c>
@@ -2497,7 +1941,7 @@
       <c r="D14" s="17"/>
       <c r="E14" s="18"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -2510,7 +1954,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="16">
         <v>6</v>
       </c>
@@ -2523,7 +1967,7 @@
       <c r="D16" s="17"/>
       <c r="E16" s="18"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="5">
         <v>6</v>
       </c>
@@ -2536,7 +1980,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="15"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="16">
         <v>7</v>
       </c>
@@ -2549,7 +1993,7 @@
       <c r="D18" s="17"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="5">
         <v>7</v>
       </c>
@@ -2562,7 +2006,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="16">
         <v>8</v>
       </c>
@@ -2575,7 +2019,7 @@
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="5">
         <v>8</v>
       </c>
@@ -2588,7 +2032,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="15"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="16">
         <v>8</v>
       </c>
@@ -2601,574 +2045,574 @@
       <c r="D22" s="17"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="15"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="15"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" ht="16.5" spans="1:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="18"/>
     </row>
-    <row r="31" ht="16.5" spans="1:5">
+    <row r="31" spans="1:5" ht="16.5">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="15"/>
     </row>
-    <row r="32" ht="16.5" spans="1:5">
+    <row r="32" spans="1:5" ht="16.5">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18"/>
     </row>
-    <row r="33" ht="16.5" spans="1:5">
+    <row r="33" spans="1:5" ht="16.5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="15"/>
     </row>
-    <row r="34" ht="16.5" spans="1:5">
+    <row r="34" spans="1:5" ht="16.5">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
     </row>
-    <row r="35" ht="16.5" spans="1:5">
+    <row r="35" spans="1:5" ht="16.5">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="15"/>
     </row>
-    <row r="36" ht="16.5" spans="1:5">
+    <row r="36" spans="1:5" ht="16.5">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="18"/>
     </row>
-    <row r="37" ht="16.5" spans="1:5">
+    <row r="37" spans="1:5" ht="16.5">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="15"/>
     </row>
-    <row r="38" ht="16.5" spans="1:5">
+    <row r="38" spans="1:5" ht="16.5">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" ht="16.5" spans="1:5">
+    <row r="39" spans="1:5" ht="16.5">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="15"/>
     </row>
-    <row r="40" ht="16.5" spans="1:5">
+    <row r="40" spans="1:5" ht="16.5">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
       <c r="E40" s="18"/>
     </row>
-    <row r="41" ht="16.5" spans="1:5">
+    <row r="41" spans="1:5" ht="16.5">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="15"/>
     </row>
-    <row r="42" ht="16.5" spans="1:5">
+    <row r="42" spans="1:5" ht="16.5">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
       <c r="E42" s="18"/>
     </row>
-    <row r="43" ht="16.5" spans="1:5">
+    <row r="43" spans="1:5" ht="16.5">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="15"/>
     </row>
-    <row r="44" ht="16.5" spans="1:5">
+    <row r="44" spans="1:5" ht="16.5">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
       <c r="E44" s="18"/>
     </row>
-    <row r="45" ht="16.5" spans="1:5">
+    <row r="45" spans="1:5" ht="16.5">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="15"/>
     </row>
-    <row r="46" ht="16.5" spans="1:5">
+    <row r="46" spans="1:5" ht="16.5">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
       <c r="E46" s="18"/>
     </row>
-    <row r="47" ht="16.5" spans="1:5">
+    <row r="47" spans="1:5" ht="16.5">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="15"/>
     </row>
-    <row r="48" ht="16.5" spans="1:5">
+    <row r="48" spans="1:5" ht="16.5">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="18"/>
     </row>
-    <row r="49" ht="16.5" spans="1:5">
+    <row r="49" spans="1:5" ht="16.5">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="15"/>
     </row>
-    <row r="50" ht="16.5" spans="1:5">
+    <row r="50" spans="1:5" ht="16.5">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" ht="16.5" spans="1:5">
+    <row r="51" spans="1:5" ht="16.5">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="15"/>
     </row>
-    <row r="52" ht="16.5" spans="1:5">
+    <row r="52" spans="1:5" ht="16.5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" ht="16.5" spans="1:5">
+    <row r="53" spans="1:5" ht="16.5">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="15"/>
     </row>
-    <row r="54" ht="16.5" spans="1:5">
+    <row r="54" spans="1:5" ht="16.5">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
       <c r="E54" s="18"/>
     </row>
-    <row r="55" ht="16.5" spans="1:5">
+    <row r="55" spans="1:5" ht="16.5">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="15"/>
     </row>
-    <row r="56" ht="16.5" spans="1:5">
+    <row r="56" spans="1:5" ht="16.5">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
       <c r="E56" s="18"/>
     </row>
-    <row r="57" ht="16.5" spans="1:5">
+    <row r="57" spans="1:5" ht="16.5">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" ht="16.5" spans="1:5">
+    <row r="58" spans="1:5" ht="16.5">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="18"/>
     </row>
-    <row r="59" ht="16.5" spans="1:5">
+    <row r="59" spans="1:5" ht="16.5">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="15"/>
     </row>
-    <row r="60" ht="16.5" spans="1:5">
+    <row r="60" spans="1:5" ht="16.5">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
       <c r="E60" s="18"/>
     </row>
-    <row r="61" ht="16.5" spans="1:5">
+    <row r="61" spans="1:5" ht="16.5">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="15"/>
     </row>
-    <row r="62" ht="16.5" spans="1:5">
+    <row r="62" spans="1:5" ht="16.5">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
       <c r="E62" s="18"/>
     </row>
-    <row r="63" ht="16.5" spans="1:5">
+    <row r="63" spans="1:5" ht="16.5">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="15"/>
     </row>
-    <row r="64" ht="16.5" spans="1:5">
+    <row r="64" spans="1:5" ht="16.5">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
       <c r="E64" s="18"/>
     </row>
-    <row r="65" ht="16.5" spans="1:5">
+    <row r="65" spans="1:5" ht="16.5">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="15"/>
     </row>
-    <row r="66" ht="16.5" spans="1:5">
+    <row r="66" spans="1:5" ht="16.5">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
       <c r="E66" s="18"/>
     </row>
-    <row r="67" ht="16.5" spans="1:5">
+    <row r="67" spans="1:5" ht="16.5">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="15"/>
     </row>
-    <row r="68" ht="16.5" spans="1:5">
+    <row r="68" spans="1:5" ht="16.5">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
       <c r="E68" s="18"/>
     </row>
-    <row r="69" ht="16.5" spans="1:5">
+    <row r="69" spans="1:5" ht="16.5">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="15"/>
     </row>
-    <row r="70" ht="16.5" spans="1:5">
+    <row r="70" spans="1:5" ht="16.5">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="18"/>
     </row>
-    <row r="71" ht="16.5" spans="1:5">
+    <row r="71" spans="1:5" ht="16.5">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="15"/>
     </row>
-    <row r="72" ht="16.5" spans="1:5">
+    <row r="72" spans="1:5" ht="16.5">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
       <c r="E72" s="18"/>
     </row>
-    <row r="73" ht="16.5" spans="1:5">
+    <row r="73" spans="1:5" ht="16.5">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="15"/>
     </row>
-    <row r="74" ht="16.5" spans="1:5">
+    <row r="74" spans="1:5" ht="16.5">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
       <c r="E74" s="18"/>
     </row>
-    <row r="75" ht="16.5" spans="1:5">
+    <row r="75" spans="1:5" ht="16.5">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="15"/>
     </row>
-    <row r="76" ht="16.5" spans="1:5">
+    <row r="76" spans="1:5" ht="16.5">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
       <c r="E76" s="18"/>
     </row>
-    <row r="77" ht="16.5" spans="1:5">
+    <row r="77" spans="1:5" ht="16.5">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="15"/>
     </row>
-    <row r="78" ht="16.5" spans="1:5">
+    <row r="78" spans="1:5" ht="16.5">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="18"/>
     </row>
-    <row r="79" ht="16.5" spans="1:5">
+    <row r="79" spans="1:5" ht="16.5">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="15"/>
     </row>
-    <row r="80" ht="16.5" spans="1:5">
+    <row r="80" spans="1:5" ht="16.5">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
       <c r="E80" s="18"/>
     </row>
-    <row r="81" ht="16.5" spans="1:5">
+    <row r="81" spans="1:5" ht="16.5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="15"/>
     </row>
-    <row r="82" ht="16.5" spans="1:5">
+    <row r="82" spans="1:5" ht="16.5">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="18"/>
     </row>
-    <row r="83" ht="16.5" spans="1:5">
+    <row r="83" spans="1:5" ht="16.5">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="15"/>
     </row>
-    <row r="84" ht="16.5" spans="1:5">
+    <row r="84" spans="1:5" ht="16.5">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="18"/>
     </row>
-    <row r="85" ht="16.5" spans="1:5">
+    <row r="85" spans="1:5" ht="16.5">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="15"/>
     </row>
-    <row r="86" ht="16.5" spans="1:5">
+    <row r="86" spans="1:5" ht="16.5">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="18"/>
     </row>
-    <row r="87" ht="16.5" spans="1:5">
+    <row r="87" spans="1:5" ht="16.5">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="15"/>
     </row>
-    <row r="88" ht="16.5" spans="1:5">
+    <row r="88" spans="1:5" ht="16.5">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
       <c r="E88" s="18"/>
     </row>
-    <row r="89" ht="16.5" spans="1:5">
+    <row r="89" spans="1:5" ht="16.5">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="15"/>
     </row>
-    <row r="90" ht="16.5" spans="1:5">
+    <row r="90" spans="1:5" ht="16.5">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
       <c r="E90" s="18"/>
     </row>
-    <row r="91" ht="16.5" spans="1:5">
+    <row r="91" spans="1:5" ht="16.5">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="15"/>
     </row>
-    <row r="92" ht="16.5" spans="1:5">
+    <row r="92" spans="1:5" ht="16.5">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" ht="16.5" spans="1:5">
+    <row r="93" spans="1:5" ht="16.5">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="15"/>
     </row>
-    <row r="94" ht="16.5" spans="1:5">
+    <row r="94" spans="1:5" ht="16.5">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
       <c r="E94" s="18"/>
     </row>
-    <row r="95" ht="16.5" spans="1:5">
+    <row r="95" spans="1:5" ht="16.5">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="15"/>
     </row>
-    <row r="96" ht="16.5" spans="1:5">
+    <row r="96" spans="1:5" ht="16.5">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
       <c r="E96" s="18"/>
     </row>
-    <row r="97" ht="16.5" spans="1:5">
+    <row r="97" spans="1:5" ht="16.5">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="15"/>
     </row>
-    <row r="98" ht="16.5" spans="1:5">
+    <row r="98" spans="1:5" ht="16.5">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
       <c r="E98" s="18"/>
     </row>
-    <row r="99" ht="16.5" spans="1:5">
+    <row r="99" spans="1:5" ht="16.5">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="15"/>
     </row>
-    <row r="100" ht="16.5" spans="1:5">
+    <row r="100" spans="1:5" ht="16.5">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
       <c r="E100" s="18"/>
     </row>
-    <row r="101" ht="16.5" spans="1:5">
+    <row r="101" spans="1:5" ht="16.5">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="15"/>
     </row>
-    <row r="102" ht="16.5" spans="1:5">
+    <row r="102" spans="1:5" ht="16.5">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
       <c r="E102" s="18"/>
     </row>
-    <row r="103" ht="16.5" spans="1:5">
+    <row r="103" spans="1:5" ht="16.5">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="15"/>
     </row>
-    <row r="104" ht="16.5" spans="1:5">
+    <row r="104" spans="1:5" ht="16.5">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
@@ -3176,8 +2620,8 @@
       <c r="E104" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/接口测试用例V1.0.xlsx
+++ b/src/main/resources/接口测试用例V1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>CaseId(用例编号)</t>
   </si>
@@ -47,25 +47,31 @@
     <t>正确的密码，用户名，登录成功</t>
   </si>
   <si>
-    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
+    <t>ModelList</t>
+  </si>
+  <si>
+    <t>/ManagementPlatform/Authority/Admin/v1.0/ModelList</t>
   </si>
   <si>
     <t>用户名空，登录失败</t>
   </si>
   <si>
-    <t>{"ACB501":" ","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
+    <t>IDCardDetail</t>
+  </si>
+  <si>
+    <t>/ManagementPlatform/BasicInformation/Person/Authentication/v1.0/IDCardDetail</t>
   </si>
   <si>
     <t>密码错误，登录失败</t>
   </si>
   <si>
-    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F8837E"}</t>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>/ManagementPlatform/BasicInformation/Person/Information/v1.0/Export</t>
   </si>
   <si>
     <t>密码为空，登录失败</t>
-  </si>
-  <si>
-    <t>{"ACB501":"13522352342","UCC003":" "}</t>
   </si>
   <si>
     <t>ApiID(接口编号)</t>
@@ -80,88 +86,16 @@
     <t>Assertion(响应检查点)</t>
   </si>
   <si>
-    <t>XXGL_01</t>
+    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>{"ACB501":" ","UCC003":"E10ADC3949BA59ABBE56E057F20F883E"}</t>
   </si>
   <si>
-    <t>身份证号创建个人核心信息成功</t>
+    <t>{"ACB501":"13522352342","UCC003":"E10ADC3949BA59ABBE56E057F20F8837E"}</t>
   </si>
   <si>
-    <t>{"IsOK":true,"Code":"0","Message":"请求成功"}</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>台湾证件创建个人核心信息成功</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>港澳证件创建个人核心信息成功</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>创建个人核心信息操作权限验证成功</t>
-  </si>
-  <si>
-    <t>编辑个人核心信息成功</t>
-  </si>
-  <si>
-    <t>{"Code": "0","IsOK": true,"Message": "个人核心信息成功",}</t>
-  </si>
-  <si>
-    <t>编辑个人核心信息操作权限验证成功。</t>
-  </si>
-  <si>
-    <t>获取个人核心信息列表成功</t>
-  </si>
-  <si>
-    <t>获取个人核心信息列表操作权限验证成功</t>
-  </si>
-  <si>
-    <t>根据个人身份证号码查询个人核心详情信息（已审核）</t>
-  </si>
-  <si>
-    <t>根据个人台胞证查询个人核心详情信息（已审核）</t>
-  </si>
-  <si>
-    <t>根据个人港澳证号码查询个人核心详情信息（已审核）</t>
-  </si>
-  <si>
-    <t>获取个人已审核核心信息操作权限验证成功</t>
-  </si>
-  <si>
-    <t>获取个人采集核心信息详情成功</t>
-  </si>
-  <si>
-    <t>获取个人采集核心信息操作权限验证成功</t>
-  </si>
-  <si>
-    <t>个人核心导出成功</t>
-  </si>
-  <si>
-    <t>个人核心导出操作权限验证</t>
-  </si>
-  <si>
-    <t>个人核心信息列表导入成功</t>
-  </si>
-  <si>
-    <t>个人核心信息列表导入操作权限验证</t>
-  </si>
-  <si>
-    <t>删除个人核心信息成功（未审核）</t>
-  </si>
-  <si>
-    <t>删除个人核心信息操作权限验证</t>
-  </si>
-  <si>
-    <t>已审核的个人信息删除，删除失败。</t>
+    <t>{"ACB501":"13522352342","UCC003":" "}</t>
   </si>
 </sst>
 </file>
@@ -171,8 +105,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -202,6 +136,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -210,7 +152,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,93 +174,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,6 +203,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -345,6 +217,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -373,13 +307,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD0D8E8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,7 +445,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,43 +463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,103 +475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,6 +510,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -591,11 +534,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,30 +593,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -658,31 +607,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -825,7 +759,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,50 +776,44 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1210,8 +1138,8 @@
   <sheetPr/>
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1245,84 +1173,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="33" customHeight="1" spans="1:6">
+    <row r="2" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="30.75" customHeight="1" spans="1:6">
+    </row>
+    <row r="3" ht="30.75" customHeight="1" spans="1:5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:6">
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:5">
@@ -1330,735 +1246,735 @@
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="19"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="20"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="19"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="16"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="20"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="19"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="19"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="16"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="19"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="16"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="20"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="19"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="16"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="20"/>
+      <c r="E18" s="10"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="19"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="16"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="20"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="19"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="16"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
       <c r="D22" s="16"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="10"/>
     </row>
     <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="19"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="16"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="16"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="19"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="16"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="10"/>
     </row>
     <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="19"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="16"/>
-      <c r="E28" s="20"/>
+      <c r="E28" s="10"/>
     </row>
     <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="19"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" ht="16.5" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="20"/>
+      <c r="E30" s="10"/>
     </row>
     <row r="31" ht="16.5" spans="1:5">
       <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="19"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" ht="16.5" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="16"/>
-      <c r="E32" s="20"/>
+      <c r="E32" s="10"/>
     </row>
     <row r="33" ht="16.5" spans="1:5">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="19"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
       <c r="D34" s="16"/>
-      <c r="E34" s="20"/>
+      <c r="E34" s="10"/>
     </row>
     <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="5"/>
-      <c r="E35" s="19"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" ht="16.5" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
       <c r="D36" s="16"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" ht="16.5" spans="1:5">
       <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="19"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" ht="16.5" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
       <c r="D38" s="16"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="10"/>
     </row>
     <row r="39" ht="16.5" spans="1:5">
       <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="19"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" ht="16.5" spans="1:5">
       <c r="A40" s="16"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="16"/>
-      <c r="E40" s="20"/>
+      <c r="E40" s="10"/>
     </row>
     <row r="41" ht="16.5" spans="1:5">
       <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="19"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" ht="16.5" spans="1:5">
       <c r="A42" s="16"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
       <c r="D42" s="16"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="10"/>
     </row>
     <row r="43" ht="16.5" spans="1:5">
       <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="19"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" ht="16.5" spans="1:5">
       <c r="A44" s="16"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="16"/>
-      <c r="E44" s="20"/>
+      <c r="E44" s="10"/>
     </row>
     <row r="45" ht="16.5" spans="1:5">
       <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="19"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" ht="16.5" spans="1:5">
       <c r="A46" s="16"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
       <c r="D46" s="16"/>
-      <c r="E46" s="20"/>
+      <c r="E46" s="10"/>
     </row>
     <row r="47" ht="16.5" spans="1:5">
       <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="19"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" ht="16.5" spans="1:5">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="16"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="10"/>
     </row>
     <row r="49" ht="16.5" spans="1:5">
       <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="19"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" ht="16.5" spans="1:5">
       <c r="A50" s="16"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
       <c r="D50" s="16"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="10"/>
     </row>
     <row r="51" ht="16.5" spans="1:5">
       <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="19"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" ht="16.5" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="16"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="10"/>
     </row>
     <row r="53" ht="16.5" spans="1:5">
       <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="19"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" ht="16.5" spans="1:5">
       <c r="A54" s="16"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
       <c r="D54" s="16"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" ht="16.5" spans="1:5">
       <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="19"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" ht="16.5" spans="1:5">
       <c r="A56" s="16"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="10"/>
     </row>
     <row r="57" ht="16.5" spans="1:5">
       <c r="A57" s="5"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="19"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" ht="16.5" spans="1:5">
       <c r="A58" s="16"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="16"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="10"/>
     </row>
     <row r="59" ht="16.5" spans="1:5">
       <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="19"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" ht="16.5" spans="1:5">
       <c r="A60" s="16"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="16"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="10"/>
     </row>
     <row r="61" ht="16.5" spans="1:5">
       <c r="A61" s="5"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="19"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" ht="16.5" spans="1:5">
       <c r="A62" s="16"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="16"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="10"/>
     </row>
     <row r="63" ht="16.5" spans="1:5">
       <c r="A63" s="5"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
       <c r="D63" s="5"/>
-      <c r="E63" s="19"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" ht="16.5" spans="1:5">
       <c r="A64" s="16"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="16"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="10"/>
     </row>
     <row r="65" ht="16.5" spans="1:5">
       <c r="A65" s="5"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="5"/>
-      <c r="E65" s="19"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" ht="16.5" spans="1:5">
       <c r="A66" s="16"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="16"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="10"/>
     </row>
     <row r="67" ht="16.5" spans="1:5">
       <c r="A67" s="5"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
       <c r="D67" s="5"/>
-      <c r="E67" s="19"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" ht="16.5" spans="1:5">
       <c r="A68" s="16"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="16"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="10"/>
     </row>
     <row r="69" ht="16.5" spans="1:5">
       <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="19"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" ht="16.5" spans="1:5">
       <c r="A70" s="16"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
       <c r="D70" s="16"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" ht="16.5" spans="1:5">
       <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
       <c r="D71" s="5"/>
-      <c r="E71" s="19"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" ht="16.5" spans="1:5">
       <c r="A72" s="16"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="16"/>
-      <c r="E72" s="20"/>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" ht="16.5" spans="1:5">
       <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="19"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" ht="16.5" spans="1:5">
       <c r="A74" s="16"/>
       <c r="B74" s="17"/>
       <c r="C74" s="17"/>
       <c r="D74" s="16"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="10"/>
     </row>
     <row r="75" ht="16.5" spans="1:5">
       <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="5"/>
-      <c r="E75" s="19"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" ht="16.5" spans="1:5">
       <c r="A76" s="16"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="16"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="10"/>
     </row>
     <row r="77" ht="16.5" spans="1:5">
       <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" ht="16.5" spans="1:5">
       <c r="A78" s="16"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
       <c r="D78" s="16"/>
-      <c r="E78" s="20"/>
+      <c r="E78" s="10"/>
     </row>
     <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="19"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" ht="16.5" spans="1:5">
       <c r="A80" s="16"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="16"/>
-      <c r="E80" s="20"/>
+      <c r="E80" s="10"/>
     </row>
     <row r="81" ht="16.5" spans="1:5">
       <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="5"/>
-      <c r="E81" s="19"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" ht="16.5" spans="1:5">
       <c r="A82" s="16"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
       <c r="D82" s="16"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="10"/>
     </row>
     <row r="83" ht="16.5" spans="1:5">
       <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="19"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" ht="16.5" spans="1:5">
       <c r="A84" s="16"/>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="16"/>
-      <c r="E84" s="20"/>
+      <c r="E84" s="10"/>
     </row>
     <row r="85" ht="16.5" spans="1:5">
       <c r="A85" s="5"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" ht="16.5" spans="1:5">
       <c r="A86" s="16"/>
       <c r="B86" s="17"/>
       <c r="C86" s="17"/>
       <c r="D86" s="16"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="10"/>
     </row>
     <row r="87" ht="16.5" spans="1:5">
       <c r="A87" s="5"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="5"/>
-      <c r="E87" s="19"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" ht="16.5" spans="1:5">
       <c r="A88" s="16"/>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="16"/>
-      <c r="E88" s="20"/>
+      <c r="E88" s="10"/>
     </row>
     <row r="89" ht="16.5" spans="1:5">
       <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="5"/>
-      <c r="E89" s="19"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" ht="16.5" spans="1:5">
       <c r="A90" s="16"/>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="16"/>
-      <c r="E90" s="20"/>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" ht="16.5" spans="1:5">
       <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="5"/>
-      <c r="E91" s="19"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" ht="16.5" spans="1:5">
       <c r="A92" s="16"/>
       <c r="B92" s="17"/>
       <c r="C92" s="17"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="20"/>
+      <c r="E92" s="10"/>
     </row>
     <row r="93" ht="16.5" spans="1:5">
       <c r="A93" s="5"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="5"/>
-      <c r="E93" s="19"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" ht="16.5" spans="1:5">
       <c r="A94" s="16"/>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="16"/>
-      <c r="E94" s="20"/>
+      <c r="E94" s="10"/>
     </row>
     <row r="95" ht="16.5" spans="1:5">
       <c r="A95" s="5"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="5"/>
-      <c r="E95" s="19"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" ht="16.5" spans="1:5">
       <c r="A96" s="16"/>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
       <c r="D96" s="16"/>
-      <c r="E96" s="20"/>
+      <c r="E96" s="10"/>
     </row>
     <row r="97" ht="16.5" spans="1:5">
       <c r="A97" s="5"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="19"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" ht="16.5" spans="1:5">
       <c r="A98" s="16"/>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="16"/>
-      <c r="E98" s="20"/>
+      <c r="E98" s="10"/>
     </row>
     <row r="99" ht="16.5" spans="1:5">
       <c r="A99" s="5"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
       <c r="D99" s="5"/>
-      <c r="E99" s="19"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" ht="16.5" spans="1:5">
       <c r="A100" s="16"/>
       <c r="B100" s="17"/>
       <c r="C100" s="17"/>
       <c r="D100" s="16"/>
-      <c r="E100" s="20"/>
+      <c r="E100" s="10"/>
     </row>
     <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="5"/>
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
       <c r="D101" s="5"/>
-      <c r="E101" s="19"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" ht="16.5" spans="1:5">
       <c r="A102" s="16"/>
       <c r="B102" s="17"/>
       <c r="C102" s="17"/>
       <c r="D102" s="16"/>
-      <c r="E102" s="20"/>
+      <c r="E102" s="10"/>
     </row>
     <row r="103" ht="16.5" spans="1:5">
       <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="19"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" ht="16.5" spans="1:5">
       <c r="A104" s="16"/>
       <c r="B104" s="17"/>
       <c r="C104" s="17"/>
       <c r="D104" s="16"/>
-      <c r="E104" s="20"/>
+      <c r="E104" s="10"/>
     </row>
     <row r="105" ht="16.5" spans="1:5">
       <c r="A105" s="5"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="19"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" ht="16.5" spans="1:5">
       <c r="A106" s="16"/>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="16"/>
-      <c r="E106" s="20"/>
+      <c r="E106" s="10"/>
     </row>
     <row r="107" ht="16.5" spans="1:5">
       <c r="A107" s="5"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="19"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" ht="16.5" spans="1:5">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
       <c r="D108" s="16"/>
-      <c r="E108" s="20"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" ht="16.5" spans="1:5">
       <c r="A109" s="5"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="19"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" ht="16.5" spans="1:5">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="16"/>
-      <c r="E110" s="20"/>
+      <c r="E110" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,7 +1989,7 @@
   <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2081,880 +1997,780 @@
     <col min="1" max="1" width="19.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="2" customWidth="1"/>
     <col min="3" max="3" width="45.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="67.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="45.5" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="18" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>22</v>
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:5">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" ht="25.5" customHeight="1" spans="1:5">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:5">
-      <c r="A4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" ht="25.5" customHeight="1" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="8">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="14" t="s">
-        <v>32</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="15"/>
     </row>
     <row r="9" ht="24.75" customHeight="1" spans="1:5">
-      <c r="A9" s="12">
-        <v>3</v>
-      </c>
-      <c r="B9" s="12">
-        <v>2</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="8">
-        <v>4</v>
-      </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="8">
-        <v>4</v>
-      </c>
-      <c r="B11" s="8">
-        <v>2</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="8">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="16">
-        <v>5</v>
-      </c>
-      <c r="B14" s="16">
-        <v>1</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5">
-        <v>5</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="16">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="16">
-        <v>7</v>
-      </c>
-      <c r="B18" s="16">
-        <v>1</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="16">
-        <v>8</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="5">
-        <v>8</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="15"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="16">
-        <v>8</v>
-      </c>
-      <c r="B22" s="16">
-        <v>3</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>48</v>
-      </c>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" ht="16.5" spans="1:5">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" ht="16.5" spans="1:5">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" ht="16.5" spans="1:5">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" ht="16.5" spans="1:5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="7"/>
     </row>
     <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" ht="16.5" spans="1:5">
       <c r="A36" s="16"/>
       <c r="B36" s="16"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" ht="16.5" spans="1:5">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="15"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" ht="16.5" spans="1:5">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" ht="16.5" spans="1:5">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="15"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="7"/>
     </row>
     <row r="40" ht="16.5" spans="1:5">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="11"/>
     </row>
     <row r="41" ht="16.5" spans="1:5">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="7"/>
     </row>
     <row r="42" ht="16.5" spans="1:5">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="17"/>
       <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="11"/>
     </row>
     <row r="43" ht="16.5" spans="1:5">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" ht="16.5" spans="1:5">
       <c r="A44" s="16"/>
       <c r="B44" s="16"/>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" ht="16.5" spans="1:5">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="15"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" ht="16.5" spans="1:5">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
+      <c r="E46" s="11"/>
     </row>
     <row r="47" ht="16.5" spans="1:5">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="15"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" ht="16.5" spans="1:5">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+      <c r="E48" s="11"/>
     </row>
     <row r="49" ht="16.5" spans="1:5">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="7"/>
     </row>
     <row r="50" ht="16.5" spans="1:5">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" ht="16.5" spans="1:5">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="7"/>
     </row>
     <row r="52" ht="16.5" spans="1:5">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
+      <c r="E52" s="11"/>
     </row>
     <row r="53" ht="16.5" spans="1:5">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="15"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="7"/>
     </row>
     <row r="54" ht="16.5" spans="1:5">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
+      <c r="E54" s="11"/>
     </row>
     <row r="55" ht="16.5" spans="1:5">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="15"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" ht="16.5" spans="1:5">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
+      <c r="E56" s="11"/>
     </row>
     <row r="57" ht="16.5" spans="1:5">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="15"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" ht="16.5" spans="1:5">
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
+      <c r="E58" s="11"/>
     </row>
     <row r="59" ht="16.5" spans="1:5">
       <c r="A59" s="5"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="15"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="7"/>
     </row>
     <row r="60" ht="16.5" spans="1:5">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" ht="16.5" spans="1:5">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="15"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" ht="16.5" spans="1:5">
       <c r="A62" s="16"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" ht="16.5" spans="1:5">
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="15"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" ht="16.5" spans="1:5">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-      <c r="E64" s="18"/>
+      <c r="E64" s="11"/>
     </row>
     <row r="65" ht="16.5" spans="1:5">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="15"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" ht="16.5" spans="1:5">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-      <c r="E66" s="18"/>
+      <c r="E66" s="11"/>
     </row>
     <row r="67" ht="16.5" spans="1:5">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="15"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" ht="16.5" spans="1:5">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="17"/>
       <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" ht="16.5" spans="1:5">
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="15"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" ht="16.5" spans="1:5">
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
-      <c r="E70" s="18"/>
+      <c r="E70" s="11"/>
     </row>
     <row r="71" ht="16.5" spans="1:5">
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="15"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" ht="16.5" spans="1:5">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="11"/>
     </row>
     <row r="73" ht="16.5" spans="1:5">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="15"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" ht="16.5" spans="1:5">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="17"/>
       <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" ht="16.5" spans="1:5">
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="15"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" ht="16.5" spans="1:5">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="17"/>
       <c r="D76" s="17"/>
-      <c r="E76" s="18"/>
+      <c r="E76" s="11"/>
     </row>
     <row r="77" ht="16.5" spans="1:5">
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="15"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" ht="16.5" spans="1:5">
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
-      <c r="E78" s="18"/>
+      <c r="E78" s="11"/>
     </row>
     <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="15"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="7"/>
     </row>
     <row r="80" ht="16.5" spans="1:5">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="E80" s="11"/>
     </row>
     <row r="81" ht="16.5" spans="1:5">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="15"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" ht="16.5" spans="1:5">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="E82" s="11"/>
     </row>
     <row r="83" ht="16.5" spans="1:5">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="15"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" ht="16.5" spans="1:5">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
+      <c r="E84" s="11"/>
     </row>
     <row r="85" ht="16.5" spans="1:5">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="15"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" ht="16.5" spans="1:5">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
+      <c r="E86" s="11"/>
     </row>
     <row r="87" ht="16.5" spans="1:5">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="15"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" ht="16.5" spans="1:5">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="17"/>
       <c r="D88" s="17"/>
-      <c r="E88" s="18"/>
+      <c r="E88" s="11"/>
     </row>
     <row r="89" ht="16.5" spans="1:5">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="15"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" ht="16.5" spans="1:5">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="17"/>
       <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
+      <c r="E90" s="11"/>
     </row>
     <row r="91" ht="16.5" spans="1:5">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="15"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="7"/>
     </row>
     <row r="92" ht="16.5" spans="1:5">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
       <c r="C92" s="17"/>
       <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" ht="16.5" spans="1:5">
       <c r="A93" s="5"/>
       <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="15"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" ht="16.5" spans="1:5">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="17"/>
       <c r="D94" s="17"/>
-      <c r="E94" s="18"/>
+      <c r="E94" s="11"/>
     </row>
     <row r="95" ht="16.5" spans="1:5">
       <c r="A95" s="5"/>
       <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="15"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="7"/>
     </row>
     <row r="96" ht="16.5" spans="1:5">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="17"/>
       <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
+      <c r="E96" s="11"/>
     </row>
     <row r="97" ht="16.5" spans="1:5">
       <c r="A97" s="5"/>
       <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="15"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" ht="16.5" spans="1:5">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="17"/>
       <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
+      <c r="E98" s="11"/>
     </row>
     <row r="99" ht="16.5" spans="1:5">
       <c r="A99" s="5"/>
       <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="15"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="7"/>
     </row>
     <row r="100" ht="16.5" spans="1:5">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="17"/>
       <c r="D100" s="17"/>
-      <c r="E100" s="18"/>
+      <c r="E100" s="11"/>
     </row>
     <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="15"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="7"/>
     </row>
     <row r="102" ht="16.5" spans="1:5">
       <c r="A102" s="16"/>
       <c r="B102" s="16"/>
       <c r="C102" s="17"/>
       <c r="D102" s="17"/>
-      <c r="E102" s="18"/>
+      <c r="E102" s="11"/>
     </row>
     <row r="103" ht="16.5" spans="1:5">
       <c r="A103" s="5"/>
       <c r="B103" s="5"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="15"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" ht="16.5" spans="1:5">
       <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="17"/>
       <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
+      <c r="E104" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
